--- a/1_variable.js/7_WebScraping/espnScraper/IPL/Rajasthan Royals/Riyan Parag.xlsx
+++ b/1_variable.js/7_WebScraping/espnScraper/IPL/Rajasthan Royals/Riyan Parag.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -695,9 +695,289 @@
         <v>Royals won by 5 wickets (with 1 ball remaining)</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Riyan Parag</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="D10" t="str">
+        <v>16</v>
+      </c>
+      <c r="E10" t="str">
+        <v>18</v>
+      </c>
+      <c r="F10" t="str">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <v>0</v>
+      </c>
+      <c r="H10" t="str">
+        <v>88.88</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Oct 3 2020</v>
+      </c>
+      <c r="K10" t="str">
+        <v>RCB won by 8 wickets (with 5 balls remaining)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Riyan Parag</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="D11" t="str">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>7</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Nov 1 2020</v>
+      </c>
+      <c r="K11" t="str">
+        <v>KKR won by 60 runs</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Riyan Parag</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="D12" t="str">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2</v>
+      </c>
+      <c r="F12" t="str">
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Sep 27 2020</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Royals won by 4 wickets (with 3 balls remaining)</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Riyan Parag</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="D13" t="str">
+        <v>20</v>
+      </c>
+      <c r="E13" t="str">
+        <v>12</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <v>1</v>
+      </c>
+      <c r="H13" t="str">
+        <v>166.66</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Oct 22 2020</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Riyan Parag</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="D14" t="str">
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <v>6</v>
+      </c>
+      <c r="F14" t="str">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H14" t="str">
+        <v>16.66</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Sep 30 2020</v>
+      </c>
+      <c r="K14" t="str">
+        <v>KKR won by 37 runs</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Riyan Parag</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="D15" t="str">
+        <v>42</v>
+      </c>
+      <c r="E15" t="str">
+        <v>26</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <v>2</v>
+      </c>
+      <c r="H15" t="str">
+        <v>161.53</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Oct 11 2020</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Royals won by 5 wickets (with 1 ball remaining)</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Riyan Parag</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="D16" t="str">
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2</v>
+      </c>
+      <c r="F16" t="str">
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <v>0</v>
+      </c>
+      <c r="H16" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Oct 14 2020</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Capitals won by 13 runs</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Riyan Parag</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="D17" t="str">
+        <v>6</v>
+      </c>
+      <c r="E17" t="str">
+        <v>4</v>
+      </c>
+      <c r="F17" t="str">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <v>0</v>
+      </c>
+      <c r="H17" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Sep 22 2020</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Royals won by 16 runs</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K17"/>
   </ignoredErrors>
 </worksheet>
 </file>